--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\PycharmProjects\CursorCode8-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D9488-6E83-41EA-847A-28D04A76BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C57089-D8EE-45A6-8EF9-2159D25F63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="3770" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="4920" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="393">
   <si>
     <t>标题</t>
   </si>
@@ -493,738 +498,795 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2-B70</t>
+  </si>
+  <si>
+    <t>合同付款预约</t>
+  </si>
+  <si>
+    <t>10-B70,B80,B59,B60,B61,B62,B63</t>
+  </si>
+  <si>
+    <t>报销业务</t>
+  </si>
+  <si>
+    <t>1-B70,B80,B59,B60,B61,B62,B63</t>
+  </si>
+  <si>
+    <t>91-B70</t>
+  </si>
+  <si>
+    <t>酬金业务</t>
+  </si>
+  <si>
+    <t>4-X</t>
+  </si>
+  <si>
+    <t>借款业务</t>
+  </si>
+  <si>
+    <t>3-B80</t>
+  </si>
+  <si>
+    <t>业务工作餐</t>
+  </si>
+  <si>
+    <t>34-B63</t>
+  </si>
+  <si>
+    <t>公务出差旅费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_xm1_0</t>
+  </si>
+  <si>
+    <t>姓名-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_xm2_0</t>
+  </si>
+  <si>
+    <t>姓名-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_xm3_0</t>
+  </si>
+  <si>
+    <t>姓名-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_xm4_0</t>
+  </si>
+  <si>
+    <t>姓名-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_xm5_0</t>
+  </si>
+  <si>
+    <t>姓名-5</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_xm6_0</t>
+  </si>
+  <si>
+    <t>人员类型-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zc1_0</t>
+  </si>
+  <si>
+    <t>人员类型-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zc2_0</t>
+  </si>
+  <si>
+    <t>人员类型-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zc3_0</t>
+  </si>
+  <si>
+    <t>人员类型-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zc4_0</t>
+  </si>
+  <si>
+    <t>人员类型-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zc5_0</t>
+  </si>
+  <si>
+    <t>人员类型-5</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zc6_0</t>
+  </si>
+  <si>
+    <t>单位-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_dw1_0</t>
+  </si>
+  <si>
+    <t>单位-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_dw2_0</t>
+  </si>
+  <si>
+    <t>单位-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_dw3_0</t>
+  </si>
+  <si>
+    <t>单位-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_dw4_0</t>
+  </si>
+  <si>
+    <t>单位-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_dw5_0</t>
+  </si>
+  <si>
+    <t>单位-5</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_dw6_0</t>
+  </si>
+  <si>
+    <t>职称-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zw1_0</t>
+  </si>
+  <si>
+    <t>职称-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zw2_0</t>
+  </si>
+  <si>
+    <t>职称-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zw3_0</t>
+  </si>
+  <si>
+    <t>职称-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zw4_0</t>
+  </si>
+  <si>
+    <t>职称-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zw5_0</t>
+  </si>
+  <si>
+    <t>职称-5</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zw6_0</t>
+  </si>
+  <si>
+    <t>工号-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_gh1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_gh2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_gh3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_gh4_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_gh5_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_gh6_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_sf1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否安排伙食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_hsf1_0</t>
+  </si>
+  <si>
+    <t>是否安排住宿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_jtf1_0</t>
+  </si>
+  <si>
+    <t>起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_start1_0</t>
+  </si>
+  <si>
+    <t>迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_end1_0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_end1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_start1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份-0</t>
+  </si>
+  <si>
+    <t>省份-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_sf2_0</t>
+  </si>
+  <si>
+    <t>省份-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_sf3_0</t>
+  </si>
+  <si>
+    <t>省份-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_sf4_0</t>
+  </si>
+  <si>
+    <t>省份-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_sf5_0</t>
+  </si>
+  <si>
+    <t>出差地点-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_addr1_0</t>
+  </si>
+  <si>
+    <t>出差地点-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_addr2_0</t>
+  </si>
+  <si>
+    <t>出差地点-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_addr3_0</t>
+  </si>
+  <si>
+    <t>出差地点-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_addr4_0</t>
+  </si>
+  <si>
+    <t>出差地点-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_addr5_0</t>
+  </si>
+  <si>
+    <t>起-0</t>
+  </si>
+  <si>
+    <t>起-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_start2_0</t>
+  </si>
+  <si>
+    <t>起-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_start3_0</t>
+  </si>
+  <si>
+    <t>起-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_start4_0</t>
+  </si>
+  <si>
+    <t>起-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_start5_0</t>
+  </si>
+  <si>
+    <t>迄-0</t>
+  </si>
+  <si>
+    <t>迄-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_end2_0</t>
+  </si>
+  <si>
+    <t>迄-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_end3_0</t>
+  </si>
+  <si>
+    <t>迄-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_end4_0</t>
+  </si>
+  <si>
+    <t>迄-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_end5_0</t>
+  </si>
+  <si>
+    <t>飞机票-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_plane1_0</t>
+  </si>
+  <si>
+    <t>飞机票-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_plane2_0</t>
+  </si>
+  <si>
+    <t>飞机票-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_plane3_0</t>
+  </si>
+  <si>
+    <t>飞机票-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_plane4_0</t>
+  </si>
+  <si>
+    <t>飞机票-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_plane5_0</t>
+  </si>
+  <si>
+    <t>火车票-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_train1_0</t>
+  </si>
+  <si>
+    <t>火车票-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_train2_0</t>
+  </si>
+  <si>
+    <t>火车票-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_train3_0</t>
+  </si>
+  <si>
+    <t>火车票-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_train4_0</t>
+  </si>
+  <si>
+    <t>火车票-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_train5_0</t>
+  </si>
+  <si>
+    <t>汽车票-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_ct1_0</t>
+  </si>
+  <si>
+    <t>汽车票-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_ct2_0</t>
+  </si>
+  <si>
+    <t>汽车票-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_ct3_0</t>
+  </si>
+  <si>
+    <t>汽车票-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_ct4_0</t>
+  </si>
+  <si>
+    <t>汽车票-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_ct5_0</t>
+  </si>
+  <si>
+    <t>其他交通费-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_qt1_0</t>
+  </si>
+  <si>
+    <t>其他交通费-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_qt2_0</t>
+  </si>
+  <si>
+    <t>其他交通费-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_qt3_0</t>
+  </si>
+  <si>
+    <t>其他交通费-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_qt4_0</t>
+  </si>
+  <si>
+    <t>其他交通费-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_qt5_0</t>
+  </si>
+  <si>
+    <t>住宿费-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zs1_0</t>
+  </si>
+  <si>
+    <t>住宿费-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zs2_0</t>
+  </si>
+  <si>
+    <t>住宿费-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zs3_0</t>
+  </si>
+  <si>
+    <t>住宿费-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zs4_0</t>
+  </si>
+  <si>
+    <t>住宿费-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_zs5_0</t>
+  </si>
+  <si>
+    <t>是否安排伙食-0</t>
+  </si>
+  <si>
+    <t>是否安排伙食-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_hsf2_0</t>
+  </si>
+  <si>
+    <t>是否安排伙食-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_hsf3_0</t>
+  </si>
+  <si>
+    <t>是否安排伙食-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_hsf4_0</t>
+  </si>
+  <si>
+    <t>是否安排伙食-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_hsf5_0</t>
+  </si>
+  <si>
+    <t>是否安排交通-0</t>
+  </si>
+  <si>
+    <t>是否安排交通-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_jtf2_0</t>
+  </si>
+  <si>
+    <t>是否安排交通-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_jtf3_0</t>
+  </si>
+  <si>
+    <t>是否安排交通-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_jtf4_0</t>
+  </si>
+  <si>
+    <t>是否安排交通-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_jtf5_0</t>
+  </si>
+  <si>
+    <t>天数-0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_days1_0</t>
+  </si>
+  <si>
+    <t>天数-1</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_days2_0</t>
+  </si>
+  <si>
+    <t>天数-2</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_days3_0</t>
+  </si>
+  <si>
+    <t>天数-3</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_days4_0</t>
+  </si>
+  <si>
+    <t>天数-4</t>
+  </si>
+  <si>
+    <t>formWF_YB6_3492_yc-chr_days5_0</t>
+  </si>
+  <si>
+    <t>差旅转卡工号-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_sno1Two_0</t>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_sno2Two_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅转卡工号-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅转卡工号-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_sno3Two_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅转卡工号-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅转卡工号-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅转卡工号-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_sno1Two_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_sno2Two_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_sno3Two_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_amt1Two_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_amt2Two_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_amt3Two_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_amt1Two_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_amt2Two_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_4270_p-card_amt3Two_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加内容按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>div.wfIcon.ui-icon-plus.addoneformWF_YB6_4270</t>
+  </si>
+  <si>
+    <t>下一步按钮5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>业务出差旅费</t>
-  </si>
-  <si>
-    <t>2-B70</t>
-  </si>
-  <si>
-    <t>合同付款预约</t>
-  </si>
-  <si>
-    <t>10-B70,B80,B59,B60,B61,B62,B63</t>
-  </si>
-  <si>
-    <t>报销业务</t>
-  </si>
-  <si>
-    <t>1-B70,B80,B59,B60,B61,B62,B63</t>
-  </si>
-  <si>
-    <t>91-B70</t>
-  </si>
-  <si>
-    <t>酬金业务</t>
-  </si>
-  <si>
-    <t>4-X</t>
-  </si>
-  <si>
-    <t>借款业务</t>
-  </si>
-  <si>
-    <t>3-B80</t>
-  </si>
-  <si>
-    <t>业务工作餐</t>
-  </si>
-  <si>
-    <t>34-B63</t>
-  </si>
-  <si>
-    <t>公务出差旅费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_xm1_0</t>
-  </si>
-  <si>
-    <t>姓名-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_xm2_0</t>
-  </si>
-  <si>
-    <t>姓名-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_xm3_0</t>
-  </si>
-  <si>
-    <t>姓名-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_xm4_0</t>
-  </si>
-  <si>
-    <t>姓名-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_xm5_0</t>
-  </si>
-  <si>
-    <t>姓名-5</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_xm6_0</t>
-  </si>
-  <si>
-    <t>人员类型-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zc1_0</t>
-  </si>
-  <si>
-    <t>人员类型-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zc2_0</t>
-  </si>
-  <si>
-    <t>人员类型-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zc3_0</t>
-  </si>
-  <si>
-    <t>人员类型-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zc4_0</t>
-  </si>
-  <si>
-    <t>人员类型-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zc5_0</t>
-  </si>
-  <si>
-    <t>人员类型-5</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zc6_0</t>
-  </si>
-  <si>
-    <t>单位-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_dw1_0</t>
-  </si>
-  <si>
-    <t>单位-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_dw2_0</t>
-  </si>
-  <si>
-    <t>单位-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_dw3_0</t>
-  </si>
-  <si>
-    <t>单位-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_dw4_0</t>
-  </si>
-  <si>
-    <t>单位-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_dw5_0</t>
-  </si>
-  <si>
-    <t>单位-5</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_dw6_0</t>
-  </si>
-  <si>
-    <t>职称-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zw1_0</t>
-  </si>
-  <si>
-    <t>职称-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zw2_0</t>
-  </si>
-  <si>
-    <t>职称-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zw3_0</t>
-  </si>
-  <si>
-    <t>职称-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zw4_0</t>
-  </si>
-  <si>
-    <t>职称-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zw5_0</t>
-  </si>
-  <si>
-    <t>职称-5</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zw6_0</t>
-  </si>
-  <si>
-    <t>工号-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_gh1_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_gh2_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_gh3_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_gh4_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_gh5_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_gh6_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_sf1_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否安排伙食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_hsf1_0</t>
-  </si>
-  <si>
-    <t>是否安排住宿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_jtf1_0</t>
-  </si>
-  <si>
-    <t>起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_start1_0</t>
-  </si>
-  <si>
-    <t>迄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_end1_0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_end1_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_start1_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步按钮4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份-0</t>
-  </si>
-  <si>
-    <t>省份-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_sf2_0</t>
-  </si>
-  <si>
-    <t>省份-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_sf3_0</t>
-  </si>
-  <si>
-    <t>省份-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_sf4_0</t>
-  </si>
-  <si>
-    <t>省份-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_sf5_0</t>
-  </si>
-  <si>
-    <t>出差地点-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_addr1_0</t>
-  </si>
-  <si>
-    <t>出差地点-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_addr2_0</t>
-  </si>
-  <si>
-    <t>出差地点-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_addr3_0</t>
-  </si>
-  <si>
-    <t>出差地点-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_addr4_0</t>
-  </si>
-  <si>
-    <t>出差地点-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_addr5_0</t>
-  </si>
-  <si>
-    <t>起-0</t>
-  </si>
-  <si>
-    <t>起-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_start2_0</t>
-  </si>
-  <si>
-    <t>起-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_start3_0</t>
-  </si>
-  <si>
-    <t>起-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_start4_0</t>
-  </si>
-  <si>
-    <t>起-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_start5_0</t>
-  </si>
-  <si>
-    <t>迄-0</t>
-  </si>
-  <si>
-    <t>迄-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_end2_0</t>
-  </si>
-  <si>
-    <t>迄-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_end3_0</t>
-  </si>
-  <si>
-    <t>迄-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_end4_0</t>
-  </si>
-  <si>
-    <t>迄-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_end5_0</t>
-  </si>
-  <si>
-    <t>飞机票-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_plane1_0</t>
-  </si>
-  <si>
-    <t>飞机票-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_plane2_0</t>
-  </si>
-  <si>
-    <t>飞机票-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_plane3_0</t>
-  </si>
-  <si>
-    <t>飞机票-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_plane4_0</t>
-  </si>
-  <si>
-    <t>飞机票-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_plane5_0</t>
-  </si>
-  <si>
-    <t>火车票-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_train1_0</t>
-  </si>
-  <si>
-    <t>火车票-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_train2_0</t>
-  </si>
-  <si>
-    <t>火车票-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_train3_0</t>
-  </si>
-  <si>
-    <t>火车票-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_train4_0</t>
-  </si>
-  <si>
-    <t>火车票-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_train5_0</t>
-  </si>
-  <si>
-    <t>汽车票-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_ct1_0</t>
-  </si>
-  <si>
-    <t>汽车票-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_ct2_0</t>
-  </si>
-  <si>
-    <t>汽车票-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_ct3_0</t>
-  </si>
-  <si>
-    <t>汽车票-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_ct4_0</t>
-  </si>
-  <si>
-    <t>汽车票-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_ct5_0</t>
-  </si>
-  <si>
-    <t>其他交通费-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_qt1_0</t>
-  </si>
-  <si>
-    <t>其他交通费-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_qt2_0</t>
-  </si>
-  <si>
-    <t>其他交通费-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_qt3_0</t>
-  </si>
-  <si>
-    <t>其他交通费-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_qt4_0</t>
-  </si>
-  <si>
-    <t>其他交通费-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_qt5_0</t>
-  </si>
-  <si>
-    <t>住宿费-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zs1_0</t>
-  </si>
-  <si>
-    <t>住宿费-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zs2_0</t>
-  </si>
-  <si>
-    <t>住宿费-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zs3_0</t>
-  </si>
-  <si>
-    <t>住宿费-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zs4_0</t>
-  </si>
-  <si>
-    <t>住宿费-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_zs5_0</t>
-  </si>
-  <si>
-    <t>是否安排伙食-0</t>
-  </si>
-  <si>
-    <t>是否安排伙食-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_hsf2_0</t>
-  </si>
-  <si>
-    <t>是否安排伙食-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_hsf3_0</t>
-  </si>
-  <si>
-    <t>是否安排伙食-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_hsf4_0</t>
-  </si>
-  <si>
-    <t>是否安排伙食-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_hsf5_0</t>
-  </si>
-  <si>
-    <t>是否安排交通-0</t>
-  </si>
-  <si>
-    <t>是否安排交通-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_jtf2_0</t>
-  </si>
-  <si>
-    <t>是否安排交通-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_jtf3_0</t>
-  </si>
-  <si>
-    <t>是否安排交通-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_jtf4_0</t>
-  </si>
-  <si>
-    <t>是否安排交通-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_jtf5_0</t>
-  </si>
-  <si>
-    <t>天数-0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_days1_0</t>
-  </si>
-  <si>
-    <t>天数-1</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_days2_0</t>
-  </si>
-  <si>
-    <t>天数-2</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_days3_0</t>
-  </si>
-  <si>
-    <t>天数-3</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_days4_0</t>
-  </si>
-  <si>
-    <t>天数-4</t>
-  </si>
-  <si>
-    <t>formWF_YB6_3492_yc-chr_days5_0</t>
-  </si>
-  <si>
-    <t>差旅转卡工号-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_sno1Two_0</t>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_sno2Two_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅转卡工号-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅转卡工号-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_sno3Two_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅转卡工号-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅转卡工号-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅转卡工号-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_sno1Two_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_sno2Two_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_sno3Two_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_amt1Two_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_amt2Two_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_amt3Two_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_amt1Two_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_amt2Two_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_4270_p-card_amt3Two_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加内容按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>div.wfIcon.ui-icon-plus.addoneformWF_YB6_4270</t>
-  </si>
-  <si>
-    <t>下一步按钮5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酬金性质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_yta-cj_abst</t>
+  </si>
+  <si>
+    <t>酬金信息备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_t-memo</t>
+  </si>
+  <si>
+    <t>劳务费类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_temp-service_type</t>
+  </si>
+  <si>
+    <t>发放事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_temp-service_remark</t>
+  </si>
+  <si>
+    <t>发放标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_temp-service_standard</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_temp-service_start</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_temp-service_end</t>
+  </si>
+  <si>
+    <t>人员类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2395_temp-bill</t>
   </si>
 </sst>
 </file>
@@ -1636,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2266,343 +2328,343 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" t="s">
         <v>148</v>
-      </c>
-      <c r="B78" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
         <v>150</v>
-      </c>
-      <c r="B79" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
         <v>152</v>
-      </c>
-      <c r="B80" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
         <v>155</v>
-      </c>
-      <c r="B82" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
         <v>157</v>
-      </c>
-      <c r="B83" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
         <v>159</v>
-      </c>
-      <c r="B84" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
         <v>162</v>
-      </c>
-      <c r="B85" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
         <v>164</v>
-      </c>
-      <c r="B86" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
         <v>166</v>
-      </c>
-      <c r="B87" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
         <v>170</v>
-      </c>
-      <c r="B89" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
         <v>172</v>
-      </c>
-      <c r="B90" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
         <v>174</v>
-      </c>
-      <c r="B91" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
         <v>176</v>
-      </c>
-      <c r="B92" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
         <v>178</v>
-      </c>
-      <c r="B93" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
         <v>180</v>
-      </c>
-      <c r="B94" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
         <v>182</v>
-      </c>
-      <c r="B95" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
         <v>184</v>
-      </c>
-      <c r="B96" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
         <v>186</v>
-      </c>
-      <c r="B97" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
         <v>188</v>
-      </c>
-      <c r="B98" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" t="s">
         <v>190</v>
-      </c>
-      <c r="B99" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" t="s">
         <v>192</v>
-      </c>
-      <c r="B100" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" t="s">
         <v>194</v>
-      </c>
-      <c r="B101" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" t="s">
         <v>196</v>
-      </c>
-      <c r="B102" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
         <v>198</v>
-      </c>
-      <c r="B103" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" t="s">
         <v>200</v>
-      </c>
-      <c r="B104" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
         <v>202</v>
-      </c>
-      <c r="B105" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" t="s">
         <v>204</v>
-      </c>
-      <c r="B106" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
         <v>206</v>
-      </c>
-      <c r="B107" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
         <v>208</v>
-      </c>
-      <c r="B108" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
         <v>210</v>
-      </c>
-      <c r="B109" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" t="s">
         <v>212</v>
-      </c>
-      <c r="B110" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" t="s">
         <v>214</v>
-      </c>
-      <c r="B111" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
         <v>216</v>
-      </c>
-      <c r="B112" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" t="s">
         <v>218</v>
-      </c>
-      <c r="B113" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" t="s">
         <v>220</v>
-      </c>
-      <c r="B114" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" t="s">
         <v>222</v>
-      </c>
-      <c r="B115" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" t="s">
         <v>224</v>
-      </c>
-      <c r="B116" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
         <v>226</v>
-      </c>
-      <c r="B117" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
@@ -2610,594 +2672,658 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" t="s">
         <v>236</v>
-      </c>
-      <c r="B122" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
         <v>238</v>
-      </c>
-      <c r="B123" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
         <v>240</v>
-      </c>
-      <c r="B124" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" t="s">
         <v>242</v>
-      </c>
-      <c r="B125" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" t="s">
         <v>244</v>
-      </c>
-      <c r="B126" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" t="s">
         <v>246</v>
-      </c>
-      <c r="B127" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" t="s">
         <v>248</v>
-      </c>
-      <c r="B128" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
         <v>250</v>
-      </c>
-      <c r="B129" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" t="s">
         <v>252</v>
-      </c>
-      <c r="B130" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" t="s">
         <v>255</v>
-      </c>
-      <c r="B132" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>256</v>
+      </c>
+      <c r="B133" t="s">
         <v>257</v>
-      </c>
-      <c r="B133" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" t="s">
         <v>259</v>
-      </c>
-      <c r="B134" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" t="s">
         <v>261</v>
-      </c>
-      <c r="B135" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" t="s">
         <v>264</v>
-      </c>
-      <c r="B137" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" t="s">
         <v>266</v>
-      </c>
-      <c r="B138" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" t="s">
         <v>268</v>
-      </c>
-      <c r="B139" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" t="s">
         <v>270</v>
-      </c>
-      <c r="B140" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>271</v>
+      </c>
+      <c r="B141" t="s">
         <v>272</v>
-      </c>
-      <c r="B141" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" t="s">
         <v>274</v>
-      </c>
-      <c r="B142" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" t="s">
         <v>276</v>
-      </c>
-      <c r="B143" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
         <v>278</v>
-      </c>
-      <c r="B144" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>279</v>
+      </c>
+      <c r="B145" t="s">
         <v>280</v>
-      </c>
-      <c r="B145" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" t="s">
         <v>282</v>
-      </c>
-      <c r="B146" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>283</v>
+      </c>
+      <c r="B147" t="s">
         <v>284</v>
-      </c>
-      <c r="B147" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>285</v>
+      </c>
+      <c r="B148" t="s">
         <v>286</v>
-      </c>
-      <c r="B148" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" t="s">
         <v>288</v>
-      </c>
-      <c r="B149" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" t="s">
         <v>290</v>
-      </c>
-      <c r="B150" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" t="s">
         <v>292</v>
-      </c>
-      <c r="B151" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" t="s">
         <v>294</v>
-      </c>
-      <c r="B152" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>295</v>
+      </c>
+      <c r="B153" t="s">
         <v>296</v>
-      </c>
-      <c r="B153" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>297</v>
+      </c>
+      <c r="B154" t="s">
         <v>298</v>
-      </c>
-      <c r="B154" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>299</v>
+      </c>
+      <c r="B155" t="s">
         <v>300</v>
-      </c>
-      <c r="B155" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>301</v>
+      </c>
+      <c r="B156" t="s">
         <v>302</v>
-      </c>
-      <c r="B156" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" t="s">
         <v>304</v>
-      </c>
-      <c r="B157" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>305</v>
+      </c>
+      <c r="B158" t="s">
         <v>306</v>
-      </c>
-      <c r="B158" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>307</v>
+      </c>
+      <c r="B159" t="s">
         <v>308</v>
-      </c>
-      <c r="B159" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>309</v>
+      </c>
+      <c r="B160" t="s">
         <v>310</v>
-      </c>
-      <c r="B160" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" t="s">
         <v>312</v>
-      </c>
-      <c r="B161" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" t="s">
         <v>314</v>
-      </c>
-      <c r="B162" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" t="s">
         <v>316</v>
-      </c>
-      <c r="B163" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" t="s">
         <v>318</v>
-      </c>
-      <c r="B164" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" t="s">
         <v>320</v>
-      </c>
-      <c r="B165" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>322</v>
+      </c>
+      <c r="B167" t="s">
         <v>323</v>
-      </c>
-      <c r="B167" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>324</v>
+      </c>
+      <c r="B168" t="s">
         <v>325</v>
-      </c>
-      <c r="B168" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>326</v>
+      </c>
+      <c r="B169" t="s">
         <v>327</v>
-      </c>
-      <c r="B169" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>328</v>
+      </c>
+      <c r="B170" t="s">
         <v>329</v>
-      </c>
-      <c r="B170" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>331</v>
+      </c>
+      <c r="B172" t="s">
         <v>332</v>
-      </c>
-      <c r="B172" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" t="s">
         <v>334</v>
-      </c>
-      <c r="B173" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" t="s">
         <v>336</v>
-      </c>
-      <c r="B174" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" t="s">
         <v>338</v>
-      </c>
-      <c r="B175" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" t="s">
         <v>340</v>
-      </c>
-      <c r="B176" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" t="s">
         <v>342</v>
-      </c>
-      <c r="B177" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" t="s">
         <v>344</v>
-      </c>
-      <c r="B178" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" t="s">
         <v>346</v>
-      </c>
-      <c r="B179" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" t="s">
         <v>348</v>
-      </c>
-      <c r="B180" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" t="s">
         <v>350</v>
-      </c>
-      <c r="B181" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B182" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" t="s">
         <v>354</v>
-      </c>
-      <c r="B183" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B184" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B185" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B186" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B189" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B190" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B191" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B192" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>373</v>
+      </c>
+      <c r="B193" t="s">
         <v>374</v>
-      </c>
-      <c r="B193" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B194" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>377</v>
+      </c>
+      <c r="B195" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>381</v>
+      </c>
+      <c r="B197" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>383</v>
+      </c>
+      <c r="B198" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>385</v>
+      </c>
+      <c r="B199" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>387</v>
+      </c>
+      <c r="B200" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C57089-D8EE-45A6-8EF9-2159D25F63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F71BB-6A46-456F-B6A8-20DE912FF69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="4920" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="3060" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="403">
   <si>
     <t>标题</t>
   </si>
@@ -1287,6 +1287,45 @@
   </si>
   <si>
     <t>formWF_YB6_2395_temp-bill</t>
+  </si>
+  <si>
+    <t>单笔录入按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号/证件号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2413_crt-unino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2413_crt-amt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入确定按钮</t>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交发放清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交发放清单按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1698,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3326,6 +3365,54 @@
         <v>392</v>
       </c>
     </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>395</v>
+      </c>
+      <c r="B204" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>396</v>
+      </c>
+      <c r="B205" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>399</v>
+      </c>
+      <c r="B206" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F71BB-6A46-456F-B6A8-20DE912FF69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE965AD3-4166-434B-A753-6DC8D925BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="3060" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9" yWindow="0" windowWidth="22165" windowHeight="13937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="405">
   <si>
     <t>标题</t>
   </si>
@@ -1326,6 +1326,13 @@
   <si>
     <t>提交发放清单按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务预约时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2759_temp-startdate</t>
   </si>
 </sst>
 </file>
@@ -1737,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3413,6 +3420,14 @@
         <v>401</v>
       </c>
     </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>403</v>
+      </c>
+      <c r="B209" t="s">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DFECE-3C4E-4750-B58A-59FC0F94E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131DFB94-9EC2-46F7-9ACA-163B93395072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="3410" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8350" yWindow="2730" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="417">
   <si>
     <t>网页元素ID</t>
   </si>
@@ -1356,6 +1356,29 @@
   <si>
     <t>选择授权项目按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金起始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金终止日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_GF6_26_paydtl-start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_GF6_26_paydtl-end_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金性质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_GF6_26_gftype-cj_name</t>
   </si>
 </sst>
 </file>
@@ -1767,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3475,6 +3498,30 @@
         <v>408</v>
       </c>
     </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>411</v>
+      </c>
+      <c r="B213" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>412</v>
+      </c>
+      <c r="B214" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>415</v>
+      </c>
+      <c r="B215" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131DFB94-9EC2-46F7-9ACA-163B93395072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D43F7-6820-429D-AF02-2A4863099ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8350" yWindow="2730" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6550" yWindow="6900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="425">
   <si>
     <t>网页元素ID</t>
   </si>
@@ -1379,6 +1379,37 @@
   </si>
   <si>
     <t>formWF_GF6_26_gftype-cj_name</t>
+  </si>
+  <si>
+    <t>选择发放学生</t>
+  </si>
+  <si>
+    <t>选择发放学生按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridWF_GF6_46_qspi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定返回按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1790,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3522,6 +3553,38 @@
         <v>416</v>
       </c>
     </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>418</v>
+      </c>
+      <c r="B216" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>419</v>
+      </c>
+      <c r="B217" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>421</v>
+      </c>
+      <c r="B218" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>423</v>
+      </c>
+      <c r="B219" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D43F7-6820-429D-AF02-2A4863099ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA8EBB6-D34D-4705-B18C-65415073CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6550" yWindow="6900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,10 +487,6 @@
     <t>input_t_value_B5501KY58020103</t>
   </si>
   <si>
-    <t>打印确认单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>打印确认单按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1409,6 +1405,10 @@
   </si>
   <si>
     <t>确定返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnPrint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2443,351 +2443,351 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
         <v>148</v>
-      </c>
-      <c r="B79" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s">
         <v>150</v>
-      </c>
-      <c r="B80" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" t="s">
         <v>153</v>
-      </c>
-      <c r="B82" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
         <v>155</v>
-      </c>
-      <c r="B83" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" t="s">
         <v>157</v>
-      </c>
-      <c r="B84" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
         <v>160</v>
-      </c>
-      <c r="B85" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
         <v>162</v>
-      </c>
-      <c r="B86" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
         <v>164</v>
-      </c>
-      <c r="B87" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
         <v>166</v>
-      </c>
-      <c r="B88" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
         <v>168</v>
-      </c>
-      <c r="B89" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" t="s">
         <v>170</v>
-      </c>
-      <c r="B90" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" t="s">
         <v>172</v>
-      </c>
-      <c r="B91" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
         <v>174</v>
-      </c>
-      <c r="B92" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
         <v>176</v>
-      </c>
-      <c r="B93" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
         <v>178</v>
-      </c>
-      <c r="B94" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
         <v>180</v>
-      </c>
-      <c r="B95" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
         <v>182</v>
-      </c>
-      <c r="B96" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
         <v>184</v>
-      </c>
-      <c r="B97" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
         <v>186</v>
-      </c>
-      <c r="B98" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
         <v>188</v>
-      </c>
-      <c r="B99" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
         <v>190</v>
-      </c>
-      <c r="B100" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" t="s">
         <v>192</v>
-      </c>
-      <c r="B101" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" t="s">
         <v>194</v>
-      </c>
-      <c r="B102" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" t="s">
         <v>196</v>
-      </c>
-      <c r="B103" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" t="s">
         <v>198</v>
-      </c>
-      <c r="B104" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
         <v>200</v>
-      </c>
-      <c r="B105" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" t="s">
         <v>202</v>
-      </c>
-      <c r="B106" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
         <v>204</v>
-      </c>
-      <c r="B107" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" t="s">
         <v>206</v>
-      </c>
-      <c r="B108" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
         <v>208</v>
-      </c>
-      <c r="B109" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" t="s">
         <v>210</v>
-      </c>
-      <c r="B110" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
         <v>212</v>
-      </c>
-      <c r="B111" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
         <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
         <v>216</v>
-      </c>
-      <c r="B113" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" t="s">
         <v>218</v>
-      </c>
-      <c r="B114" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" t="s">
         <v>220</v>
-      </c>
-      <c r="B115" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" t="s">
         <v>222</v>
-      </c>
-      <c r="B116" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" t="s">
         <v>224</v>
-      </c>
-      <c r="B117" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -2795,591 +2795,591 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" t="s">
         <v>234</v>
-      </c>
-      <c r="B122" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" t="s">
         <v>236</v>
-      </c>
-      <c r="B123" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" t="s">
         <v>238</v>
-      </c>
-      <c r="B124" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
         <v>240</v>
-      </c>
-      <c r="B125" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126" t="s">
         <v>242</v>
-      </c>
-      <c r="B126" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" t="s">
         <v>244</v>
-      </c>
-      <c r="B127" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" t="s">
         <v>246</v>
-      </c>
-      <c r="B128" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" t="s">
         <v>248</v>
-      </c>
-      <c r="B129" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>249</v>
+      </c>
+      <c r="B130" t="s">
         <v>250</v>
-      </c>
-      <c r="B130" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" t="s">
         <v>253</v>
-      </c>
-      <c r="B132" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
         <v>255</v>
-      </c>
-      <c r="B133" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" t="s">
         <v>257</v>
-      </c>
-      <c r="B134" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" t="s">
         <v>259</v>
-      </c>
-      <c r="B135" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
         <v>262</v>
-      </c>
-      <c r="B137" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
         <v>264</v>
-      </c>
-      <c r="B138" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" t="s">
         <v>266</v>
-      </c>
-      <c r="B139" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" t="s">
         <v>268</v>
-      </c>
-      <c r="B140" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>269</v>
+      </c>
+      <c r="B141" t="s">
         <v>270</v>
-      </c>
-      <c r="B141" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>271</v>
+      </c>
+      <c r="B142" t="s">
         <v>272</v>
-      </c>
-      <c r="B142" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>273</v>
+      </c>
+      <c r="B143" t="s">
         <v>274</v>
-      </c>
-      <c r="B143" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>275</v>
+      </c>
+      <c r="B144" t="s">
         <v>276</v>
-      </c>
-      <c r="B144" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" t="s">
         <v>278</v>
-      </c>
-      <c r="B145" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" t="s">
         <v>280</v>
-      </c>
-      <c r="B146" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>281</v>
+      </c>
+      <c r="B147" t="s">
         <v>282</v>
-      </c>
-      <c r="B147" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" t="s">
         <v>284</v>
-      </c>
-      <c r="B148" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" t="s">
         <v>286</v>
-      </c>
-      <c r="B149" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>287</v>
+      </c>
+      <c r="B150" t="s">
         <v>288</v>
-      </c>
-      <c r="B150" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" t="s">
         <v>290</v>
-      </c>
-      <c r="B151" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" t="s">
         <v>292</v>
-      </c>
-      <c r="B152" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" t="s">
         <v>294</v>
-      </c>
-      <c r="B153" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>295</v>
+      </c>
+      <c r="B154" t="s">
         <v>296</v>
-      </c>
-      <c r="B154" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>297</v>
+      </c>
+      <c r="B155" t="s">
         <v>298</v>
-      </c>
-      <c r="B155" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>299</v>
+      </c>
+      <c r="B156" t="s">
         <v>300</v>
-      </c>
-      <c r="B156" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>301</v>
+      </c>
+      <c r="B157" t="s">
         <v>302</v>
-      </c>
-      <c r="B157" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>303</v>
+      </c>
+      <c r="B158" t="s">
         <v>304</v>
-      </c>
-      <c r="B158" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>305</v>
+      </c>
+      <c r="B159" t="s">
         <v>306</v>
-      </c>
-      <c r="B159" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" t="s">
         <v>308</v>
-      </c>
-      <c r="B160" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161" t="s">
         <v>310</v>
-      </c>
-      <c r="B161" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>311</v>
+      </c>
+      <c r="B162" t="s">
         <v>312</v>
-      </c>
-      <c r="B162" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>313</v>
+      </c>
+      <c r="B163" t="s">
         <v>314</v>
-      </c>
-      <c r="B163" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" t="s">
         <v>316</v>
-      </c>
-      <c r="B164" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" t="s">
         <v>318</v>
-      </c>
-      <c r="B165" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>320</v>
+      </c>
+      <c r="B167" t="s">
         <v>321</v>
-      </c>
-      <c r="B167" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>322</v>
+      </c>
+      <c r="B168" t="s">
         <v>323</v>
-      </c>
-      <c r="B168" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>324</v>
+      </c>
+      <c r="B169" t="s">
         <v>325</v>
-      </c>
-      <c r="B169" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" t="s">
         <v>327</v>
-      </c>
-      <c r="B170" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B171" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>329</v>
+      </c>
+      <c r="B172" t="s">
         <v>330</v>
-      </c>
-      <c r="B172" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>331</v>
+      </c>
+      <c r="B173" t="s">
         <v>332</v>
-      </c>
-      <c r="B173" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>333</v>
+      </c>
+      <c r="B174" t="s">
         <v>334</v>
-      </c>
-      <c r="B174" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" t="s">
         <v>336</v>
-      </c>
-      <c r="B175" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>337</v>
+      </c>
+      <c r="B176" t="s">
         <v>338</v>
-      </c>
-      <c r="B176" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" t="s">
         <v>340</v>
-      </c>
-      <c r="B177" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>341</v>
+      </c>
+      <c r="B178" t="s">
         <v>342</v>
-      </c>
-      <c r="B178" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>343</v>
+      </c>
+      <c r="B179" t="s">
         <v>344</v>
-      </c>
-      <c r="B179" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>345</v>
+      </c>
+      <c r="B180" t="s">
         <v>346</v>
-      </c>
-      <c r="B180" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" t="s">
         <v>348</v>
-      </c>
-      <c r="B181" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" t="s">
         <v>352</v>
-      </c>
-      <c r="B183" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B186" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B187" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B188" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B189" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B191" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>371</v>
+      </c>
+      <c r="B193" t="s">
         <v>372</v>
-      </c>
-      <c r="B193" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B194" t="s">
         <v>23</v>
@@ -3387,98 +3387,98 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>375</v>
+      </c>
+      <c r="B195" t="s">
         <v>376</v>
-      </c>
-      <c r="B195" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>377</v>
+      </c>
+      <c r="B196" t="s">
         <v>378</v>
-      </c>
-      <c r="B196" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>379</v>
+      </c>
+      <c r="B197" t="s">
         <v>380</v>
-      </c>
-      <c r="B197" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>381</v>
+      </c>
+      <c r="B198" t="s">
         <v>382</v>
-      </c>
-      <c r="B198" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>383</v>
+      </c>
+      <c r="B199" t="s">
         <v>384</v>
-      </c>
-      <c r="B199" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>385</v>
+      </c>
+      <c r="B200" t="s">
         <v>386</v>
-      </c>
-      <c r="B200" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>387</v>
+      </c>
+      <c r="B201" t="s">
         <v>388</v>
-      </c>
-      <c r="B201" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>389</v>
+      </c>
+      <c r="B202" t="s">
         <v>390</v>
-      </c>
-      <c r="B202" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>391</v>
+      </c>
+      <c r="B203" t="s">
         <v>392</v>
-      </c>
-      <c r="B203" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B204" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B205" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>397</v>
+      </c>
+      <c r="B206" t="s">
         <v>398</v>
-      </c>
-      <c r="B206" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3491,98 +3491,98 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B208" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" t="s">
         <v>402</v>
-      </c>
-      <c r="B209" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" t="s">
         <v>404</v>
-      </c>
-      <c r="B210" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" t="s">
         <v>406</v>
-      </c>
-      <c r="B211" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B213" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B214" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>414</v>
+      </c>
+      <c r="B215" t="s">
         <v>415</v>
-      </c>
-      <c r="B215" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B216" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>418</v>
+      </c>
+      <c r="B217" t="s">
         <v>419</v>
-      </c>
-      <c r="B217" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>420</v>
+      </c>
+      <c r="B218" t="s">
         <v>421</v>
-      </c>
-      <c r="B218" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>422</v>
+      </c>
+      <c r="B219" t="s">
         <v>423</v>
-      </c>
-      <c r="B219" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/标题-ID.xlsx
+++ b/Auto Finan/标题-ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA8EBB6-D34D-4705-B18C-65415073CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978FB08A-765F-4198-9C1B-54E19B6B970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6550" yWindow="6900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="502">
   <si>
     <t>网页元素ID</t>
   </si>
@@ -328,162 +328,81 @@
     <t>M资料信息费</t>
   </si>
   <si>
-    <t>input_t_value_B0103KY07020108</t>
-  </si>
-  <si>
     <t>M外聘工资</t>
   </si>
   <si>
-    <t>input_t_value_B5501KY07020109</t>
-  </si>
-  <si>
     <t>M外聘工资（劳务）</t>
   </si>
   <si>
-    <t>input_t_value_B5502KY07020109</t>
-  </si>
-  <si>
     <t>M专职科研工资</t>
   </si>
   <si>
-    <t>input_t_value_B5507KY07020109</t>
-  </si>
-  <si>
     <t>M助研津贴</t>
   </si>
   <si>
-    <t>input_t_value_B5601KY07020109</t>
-  </si>
-  <si>
     <t>M版面费</t>
   </si>
   <si>
-    <t>input_t_value_B0201KY07020108</t>
-  </si>
-  <si>
     <t>M出版费</t>
   </si>
   <si>
-    <t>input_t_value_B0202KY07020108</t>
-  </si>
-  <si>
     <t>M日常印刷费</t>
   </si>
   <si>
-    <t>input_t_value_B0203KY07020108</t>
-  </si>
-  <si>
     <t>M电费</t>
   </si>
   <si>
-    <t>input_t_value_B0601KY07020104</t>
-  </si>
-  <si>
     <t>M因公出国（境）费用</t>
   </si>
   <si>
-    <t>input_t_value_B1001KY07020107</t>
-  </si>
-  <si>
     <t>M设备租赁费</t>
   </si>
   <si>
-    <t>input_t_value_B1201KY0702010103</t>
-  </si>
-  <si>
     <t>M会议费</t>
   </si>
   <si>
-    <t>input_t_value_B1301KY07020106</t>
-  </si>
-  <si>
     <t>M专用材料费</t>
   </si>
   <si>
-    <t>input_t_value_B1601KY07020102</t>
-  </si>
-  <si>
     <t>M委托加工费</t>
   </si>
   <si>
-    <t>input_t_value_B1801KY07020103</t>
-  </si>
-  <si>
     <t>M检测、测试费</t>
   </si>
   <si>
-    <t>input_t_value_B1803KY07020103</t>
-  </si>
-  <si>
     <t>M计算、分析费</t>
   </si>
   <si>
-    <t>input_t_value_B1804KY07020103</t>
-  </si>
-  <si>
     <t>M其他委托业务费</t>
   </si>
   <si>
-    <t>input_t_value_B1807KY07020103</t>
-  </si>
-  <si>
     <t>M外专来华费</t>
   </si>
   <si>
-    <t>input_t_value_B2201KY07020107</t>
-  </si>
-  <si>
     <t>M专利申请费</t>
   </si>
   <si>
-    <t>input_t_value_B2202KY07020108</t>
-  </si>
-  <si>
     <t>M审计费</t>
   </si>
   <si>
-    <t>input_t_value_B2204KY07020111</t>
-  </si>
-  <si>
     <t>M外拨经费</t>
   </si>
   <si>
-    <t>input_t_value_B2213KY070204</t>
-  </si>
-  <si>
     <t>M专用设备购置</t>
   </si>
   <si>
-    <t>input_t_value_B2504KY0702010101</t>
-  </si>
-  <si>
-    <t>input_t_value_B2603KY0702010101</t>
-  </si>
-  <si>
     <t>M试制设备费</t>
   </si>
   <si>
-    <t>input_t_value_B2604KY0702010102</t>
-  </si>
-  <si>
     <t>M设备改造</t>
   </si>
   <si>
-    <t>input_t_value_B2606KY0702010103</t>
-  </si>
-  <si>
     <t>M信息网购建及软件购置更新</t>
   </si>
   <si>
-    <t>input_t_value_B2609KY07020108</t>
-  </si>
-  <si>
     <t>M专用工具软件费</t>
   </si>
   <si>
-    <t>input_t_value_B5105KY07020108</t>
-  </si>
-  <si>
     <t>input_t_value_B5501KY58020103</t>
   </si>
   <si>
@@ -1410,6 +1329,318 @@
   <si>
     <t>BtnPrint</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H办公用品费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0101KY29020402</t>
+  </si>
+  <si>
+    <t>H办公耗材费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0102KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B0103KY290201</t>
+  </si>
+  <si>
+    <t>H其他办公费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0104KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B5501KY290203</t>
+  </si>
+  <si>
+    <t>input_t_value_B5502KY290203</t>
+  </si>
+  <si>
+    <t>H劳务派遣</t>
+  </si>
+  <si>
+    <t>input_t_value_B5506KY290203</t>
+  </si>
+  <si>
+    <t>input_t_value_B5507KY290203</t>
+  </si>
+  <si>
+    <t>input_t_value_B5601KY290203</t>
+  </si>
+  <si>
+    <t>input_t_value_B0201KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B0202KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B0203KY290201</t>
+  </si>
+  <si>
+    <t>H其他印刷</t>
+  </si>
+  <si>
+    <t>input_t_value_B0204KY29020402</t>
+  </si>
+  <si>
+    <t>H水费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0501KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B0601KY290201</t>
+  </si>
+  <si>
+    <t>H邮寄费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0701KY29020402</t>
+  </si>
+  <si>
+    <t>H电话通讯费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0702KY29020402</t>
+  </si>
+  <si>
+    <t>H网络通讯费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0703KY29020402</t>
+  </si>
+  <si>
+    <t>H其他邮电费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0704KY29020402</t>
+  </si>
+  <si>
+    <t>H物管费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0801KY29020402</t>
+  </si>
+  <si>
+    <t>H清洁卫生费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0802KY29020402</t>
+  </si>
+  <si>
+    <t>H其他物业管理费</t>
+  </si>
+  <si>
+    <t>input_t_value_B0804KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B1001KY290201</t>
+  </si>
+  <si>
+    <t>H设备维修（护）费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1101KY29020402</t>
+  </si>
+  <si>
+    <t>H工程装修费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1103KY29020402</t>
+  </si>
+  <si>
+    <t>H办公家具维修（护）费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1104KY29020402</t>
+  </si>
+  <si>
+    <t>H网络信息系统运行与维护费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1105KY29020402</t>
+  </si>
+  <si>
+    <t>H其他维修（护）费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1106KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B1201KY290201</t>
+  </si>
+  <si>
+    <t>H办公用房、宿舍租赁</t>
+  </si>
+  <si>
+    <t>input_t_value_B1202KY29020402</t>
+  </si>
+  <si>
+    <t>H其他租赁费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1203KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B1301KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B1601KY290201</t>
+  </si>
+  <si>
+    <t>H专用燃料费</t>
+  </si>
+  <si>
+    <t>input_t_value_B1602KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B1801KY290202</t>
+  </si>
+  <si>
+    <t>input_t_value_B1803KY290202</t>
+  </si>
+  <si>
+    <t>input_t_value_B1804KY290202</t>
+  </si>
+  <si>
+    <t>input_t_value_B1807KY290202</t>
+  </si>
+  <si>
+    <t>H出租车费</t>
+  </si>
+  <si>
+    <t>input_t_value_B2101KY29020402</t>
+  </si>
+  <si>
+    <t>H其他交通费</t>
+  </si>
+  <si>
+    <t>input_t_value_B2106KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B2201KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2202KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2204KY29020402</t>
+  </si>
+  <si>
+    <t>H搬运费</t>
+  </si>
+  <si>
+    <t>input_t_value_B2205KY29020402</t>
+  </si>
+  <si>
+    <t>H年费会员费</t>
+  </si>
+  <si>
+    <t>input_t_value_B2207KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B2213KY290202</t>
+  </si>
+  <si>
+    <t>H业务工作餐</t>
+  </si>
+  <si>
+    <t>input_t_value_B2217KY29020402</t>
+  </si>
+  <si>
+    <t>H其他</t>
+  </si>
+  <si>
+    <t>input_t_value_B2221KY29020402</t>
+  </si>
+  <si>
+    <t>H电子数据资源</t>
+  </si>
+  <si>
+    <t>input_t_value_B2222KY29020402</t>
+  </si>
+  <si>
+    <t>H无形资产维护费</t>
+  </si>
+  <si>
+    <t>input_t_value_B2224KY29020402</t>
+  </si>
+  <si>
+    <t>H办公家俱购置</t>
+  </si>
+  <si>
+    <t>input_t_value_B2502KY29020402</t>
+  </si>
+  <si>
+    <t>H办公设备购置</t>
+  </si>
+  <si>
+    <t>input_t_value_B2503KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B2504KY290201</t>
+  </si>
+  <si>
+    <t>H其他基本建设支出</t>
+  </si>
+  <si>
+    <t>input_t_value_B2510KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2601KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B2602KY29020402</t>
+  </si>
+  <si>
+    <t>input_t_value_B2603KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2604KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2606KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2609KY290201</t>
+  </si>
+  <si>
+    <t>H移交设备</t>
+  </si>
+  <si>
+    <t>input_t_value_B2616KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B2621KY290201</t>
+  </si>
+  <si>
+    <t>H科研经费博士研究生助研费（发展）</t>
+  </si>
+  <si>
+    <t>input_t_value_B2701KY290203</t>
+  </si>
+  <si>
+    <t>H试验费</t>
+  </si>
+  <si>
+    <t>input_t_value_B5101KY290202</t>
+  </si>
+  <si>
+    <t>H实验室改装费</t>
+  </si>
+  <si>
+    <t>input_t_value_B5102KY29020402</t>
+  </si>
+  <si>
+    <t>H数据采集费</t>
+  </si>
+  <si>
+    <t>input_t_value_B5103KY290201</t>
+  </si>
+  <si>
+    <t>input_t_value_B5105KY290201</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B219"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1835,7 +2066,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2011,1578 +2242,1898 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>24</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>37</v>
+      <c r="B64" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>38</v>
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>39</v>
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>40</v>
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>41</v>
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>42</v>
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>43</v>
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>44</v>
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>45</v>
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>46</v>
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>47</v>
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>48</v>
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>49</v>
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>424</v>
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>374</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B131" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B146" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B153" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="B155" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="B157" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B158" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="B159" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B160" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B161" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B163" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="B165" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B166" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B167" t="s">
-        <v>321</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B168" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="B169" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B170" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B171" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B172" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="B173" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="B174" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="B175" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="B178" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="B179" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>345</v>
+        <v>64</v>
       </c>
       <c r="B180" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B181" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="B183" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B185" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="B186" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B187" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="B188" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B189" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B190" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="B191" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="B192" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>371</v>
-      </c>
-      <c r="B193" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>373</v>
-      </c>
-      <c r="B194" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>375</v>
-      </c>
-      <c r="B195" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>377</v>
-      </c>
-      <c r="B196" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>379</v>
-      </c>
-      <c r="B197" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>381</v>
-      </c>
-      <c r="B198" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>383</v>
-      </c>
-      <c r="B199" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>385</v>
-      </c>
-      <c r="B200" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>387</v>
-      </c>
-      <c r="B201" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>391</v>
-      </c>
-      <c r="B203" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>393</v>
-      </c>
-      <c r="B204" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>394</v>
-      </c>
-      <c r="B205" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>397</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="193" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>64</v>
-      </c>
-      <c r="B207" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B193" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B208" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B194" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B209" t="s">
+    </row>
+    <row r="195" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="196" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B196" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="197" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B211" t="s">
+    </row>
+    <row r="198" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="199" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B212" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    </row>
+    <row r="201" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B213" t="s">
+    </row>
+    <row r="202" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>411</v>
-      </c>
-      <c r="B214" t="s">
+    <row r="204" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="205" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B205" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="206" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B216" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    </row>
+    <row r="207" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B217" t="s">
+    </row>
+    <row r="208" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B208" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B218" t="s">
+    </row>
+    <row r="209" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B209" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B219" t="s">
+    </row>
+    <row r="210" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>423</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
